--- a/PCAstatic/results_PCAstatic_with_AIC_BIC_AdjustedR2_LogLikelihood_Residuals.xlsx
+++ b/PCAstatic/results_PCAstatic_with_AIC_BIC_AdjustedR2_LogLikelihood_Residuals.xlsx
@@ -490,31 +490,31 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2257764942572471</v>
+        <v>0.4550261933023185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6602969615489335</v>
+        <v>0.7785243494829454</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6530383496162184</v>
+        <v>0.7737919637881365</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1801641115658563</v>
+        <v>0.3901673830723808</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9454294466443746</v>
+        <v>0.5359328471787868</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9403766176299648</v>
+        <v>0.4929636663620077</v>
       </c>
       <c r="H2" t="n">
-        <v>-34.06924510713176</v>
+        <v>-168.6401250326047</v>
       </c>
       <c r="I2" t="n">
-        <v>78.13849021426353</v>
+        <v>347.2802500652093</v>
       </c>
       <c r="J2" t="n">
-        <v>95.54168483097348</v>
+        <v>364.6834446819193</v>
       </c>
     </row>
     <row r="3">
@@ -522,31 +522,31 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2128731680577286</v>
+        <v>0.431129791961647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6757924084192333</v>
+        <v>0.8025829984853882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6674437150738057</v>
+        <v>0.7974992988755698</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1736332819363075</v>
+        <v>0.3769325639589143</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9510423763266515</v>
+        <v>0.5699942986560207</v>
       </c>
       <c r="G3" t="n">
-        <v>0.945500003835329</v>
+        <v>0.5213144079378343</v>
       </c>
       <c r="H3" t="n">
-        <v>-11.84597741942612</v>
+        <v>-154.8533735312403</v>
       </c>
       <c r="I3" t="n">
-        <v>35.69195483885225</v>
+        <v>321.7067470624805</v>
       </c>
       <c r="J3" t="n">
-        <v>56.57578837890419</v>
+        <v>342.5905806025325</v>
       </c>
     </row>
     <row r="4">
@@ -554,31 +554,31 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1839108560261255</v>
+        <v>0.4069223977525986</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7555355182550788</v>
+        <v>0.8240156243527104</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7481594347541545</v>
+        <v>0.8187057509495594</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1632675558436219</v>
+        <v>0.3748672222923064</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9556315991925847</v>
+        <v>0.5776741876625082</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9496589298531249</v>
+        <v>0.5208226360016921</v>
       </c>
       <c r="H4" t="n">
-        <v>14.78899044842026</v>
+        <v>-140.9889179471134</v>
       </c>
       <c r="I4" t="n">
-        <v>-15.57798089684053</v>
+        <v>295.9778358942269</v>
       </c>
       <c r="J4" t="n">
-        <v>8.786491566553412</v>
+        <v>320.3423083576208</v>
       </c>
     </row>
     <row r="5">
@@ -586,31 +586,31 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1732804452903269</v>
+        <v>0.3863824836961171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7627935445774858</v>
+        <v>0.8411709234032838</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7545786023983512</v>
+        <v>0.8356703493220122</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1542706850041704</v>
+        <v>0.3605917587162446</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9625584272765664</v>
+        <v>0.6132051280381245</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9566852393983807</v>
+        <v>0.5525314226323401</v>
       </c>
       <c r="H5" t="n">
-        <v>35.32883616439746</v>
+        <v>-128.7852963864772</v>
       </c>
       <c r="I5" t="n">
-        <v>-54.65767232879492</v>
+        <v>273.5705927729544</v>
       </c>
       <c r="J5" t="n">
-        <v>-26.81256094205899</v>
+        <v>301.4157041596903</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1626346195722266</v>
+        <v>0.3658276497474408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7696584059034052</v>
+        <v>0.8579678347371049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7606450391778863</v>
+        <v>0.8524100543572525</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1469574528607001</v>
+        <v>0.355523965275849</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9674561806886989</v>
+        <v>0.6302295448495192</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9615982932126647</v>
+        <v>0.5636708629224326</v>
       </c>
       <c r="H6" t="n">
-        <v>59.7188430879205</v>
+        <v>-115.5945903272773</v>
       </c>
       <c r="I6" t="n">
-        <v>-101.437686175841</v>
+        <v>249.1891806545546</v>
       </c>
       <c r="J6" t="n">
-        <v>-70.11193586576309</v>
+        <v>280.5149309646325</v>
       </c>
     </row>
     <row r="7">
@@ -650,31 +650,31 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1501289767467763</v>
+        <v>0.3467238624949215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7761588928426305</v>
+        <v>0.8708034013737245</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7663841720060641</v>
+        <v>0.8651616285079482</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1391661125983226</v>
+        <v>0.3488277462030486</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9712112835033809</v>
+        <v>0.6410037740252483</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9653360352387648</v>
+        <v>0.5677392381120336</v>
       </c>
       <c r="H7" t="n">
-        <v>84.17233571028811</v>
+        <v>-104.208762653963</v>
       </c>
       <c r="I7" t="n">
-        <v>-148.3446714205762</v>
+        <v>228.417525307926</v>
       </c>
       <c r="J7" t="n">
-        <v>-113.5382821871563</v>
+        <v>263.2239145413459</v>
       </c>
     </row>
     <row r="8">
@@ -682,31 +682,31 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.140252560609945</v>
+        <v>0.3347388592432293</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7815048539322264</v>
+        <v>0.8803131575107868</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7709634214465004</v>
+        <v>0.8745387923029738</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1318358622157212</v>
+        <v>0.3356548522859122</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9743259144451667</v>
+        <v>0.6708047414951064</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9684422698388507</v>
+        <v>0.5953641614210683</v>
       </c>
       <c r="H8" t="n">
-        <v>104.6706067561827</v>
+        <v>-94.9956602040921</v>
       </c>
       <c r="I8" t="n">
-        <v>-187.3412135123654</v>
+        <v>211.9913204081842</v>
       </c>
       <c r="J8" t="n">
-        <v>-149.0541853556035</v>
+        <v>250.2783485649461</v>
       </c>
     </row>
     <row r="9">
@@ -714,31 +714,31 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1327986875391641</v>
+        <v>0.3183415625138936</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7870077824411451</v>
+        <v>0.8915324249059252</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7757482819534524</v>
+        <v>0.8857984561784852</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1266954201762954</v>
+        <v>0.333200625905965</v>
       </c>
       <c r="F9" t="n">
-        <v>0.976879555937572</v>
+        <v>0.6785280148092026</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9709764638365266</v>
+        <v>0.596450061143467</v>
       </c>
       <c r="H9" t="n">
-        <v>120.9616187336086</v>
+        <v>-83.17789812405405</v>
       </c>
       <c r="I9" t="n">
-        <v>-217.9232374672173</v>
+        <v>190.3557962481081</v>
       </c>
       <c r="J9" t="n">
-        <v>-176.1555703871134</v>
+        <v>232.123463328212</v>
       </c>
     </row>
   </sheetData>
